--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -767,10 +779,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -814,28 +826,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -860,28 +872,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -940,10 +952,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -987,28 +999,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1033,28 +1045,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1113,10 +1125,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1160,28 +1172,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1206,28 +1218,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1298,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1333,28 +1345,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1391,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1471,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1506,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1564,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1632,10 +1644,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1679,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1725,28 +1737,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2095,10 +2107,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2142,28 +2154,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2188,28 +2200,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2268,10 +2280,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2315,28 +2327,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2361,28 +2373,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2441,10 +2453,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2488,28 +2500,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2534,28 +2546,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2614,10 +2626,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2661,28 +2673,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2707,28 +2719,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2787,10 +2799,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2834,28 +2846,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2880,28 +2892,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2960,10 +2972,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3007,28 +3019,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3053,28 +3065,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3133,10 +3145,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3180,28 +3192,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3226,28 +3238,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3306,10 +3318,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3353,28 +3365,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3399,28 +3411,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3479,10 +3491,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3526,28 +3538,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3572,28 +3584,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3652,10 +3664,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3699,28 +3711,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3745,28 +3757,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3825,10 +3837,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3872,28 +3884,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3918,28 +3930,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3998,10 +4010,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4045,28 +4057,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4091,28 +4103,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4171,10 +4183,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4218,28 +4230,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4264,28 +4276,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4344,10 +4356,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4391,28 +4403,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4437,28 +4449,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4517,10 +4529,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4564,28 +4576,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4610,28 +4622,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4690,10 +4702,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4737,28 +4749,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4783,28 +4795,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4863,10 +4875,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4910,28 +4922,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4956,28 +4968,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5674,10 +5686,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5721,28 +5733,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5767,28 +5779,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5847,10 +5859,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5894,28 +5906,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5940,28 +5952,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6020,10 +6032,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6067,28 +6079,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6113,28 +6125,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6193,10 +6205,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6240,28 +6252,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6286,28 +6298,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6366,10 +6378,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6413,28 +6425,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6459,28 +6471,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6539,10 +6551,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6586,28 +6598,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6632,28 +6644,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6712,10 +6724,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6759,28 +6771,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6805,28 +6817,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6885,10 +6897,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6932,28 +6944,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6978,28 +6990,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7058,10 +7070,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7105,28 +7117,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7151,28 +7163,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7231,10 +7243,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7278,28 +7290,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7324,28 +7336,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7404,10 +7416,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7451,28 +7463,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7497,28 +7509,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7577,10 +7589,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7624,28 +7636,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7670,28 +7682,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7750,10 +7762,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7797,28 +7809,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7843,28 +7855,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7923,10 +7935,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7970,28 +7982,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8016,28 +8028,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8096,10 +8108,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8143,28 +8155,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8189,28 +8201,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8269,10 +8281,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8316,28 +8328,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8362,28 +8374,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8442,10 +8454,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8489,28 +8501,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8535,28 +8547,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8615,10 +8627,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8662,28 +8674,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8708,28 +8720,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8788,10 +8800,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8835,28 +8847,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8881,28 +8893,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8961,10 +8973,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9008,28 +9020,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9054,28 +9066,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9134,10 +9146,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="2" t="s">
+      <c r="J312" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9181,28 +9193,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="2">
+      <c r="A314" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="2">
+      <c r="C314" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9227,28 +9239,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="2">
+      <c r="C316" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="2">
+      <c r="D316" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="2">
+      <c r="I316" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9307,10 +9319,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9354,28 +9366,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9400,28 +9412,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9480,10 +9492,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9527,28 +9539,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
+      <c r="A326" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="2">
+      <c r="C326" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9573,28 +9585,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="2">
+      <c r="C328" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="2">
+      <c r="D328" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="2">
+      <c r="I328" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9653,10 +9665,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="2" t="s">
+      <c r="J330" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9700,28 +9712,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="2">
+      <c r="A332" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="2">
+      <c r="C332" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9746,28 +9758,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="2">
+      <c r="C334" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="2">
+      <c r="D334" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="2">
+      <c r="I334" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9826,10 +9838,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="2" t="s">
+      <c r="J336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
@@ -9873,28 +9885,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="s" s="2">
+      <c r="A338" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C338" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D338" t="s" s="2">
+      <c r="C338" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D338" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9919,28 +9931,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C340" t="s" s="2">
+      <c r="C340" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D340" t="s" s="2">
+      <c r="D340" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I340" t="s" s="2">
+      <c r="I340" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9999,10 +10011,10 @@
       <c r="I342">
         <f>((C342-C341)^2+(D342- D341)^2)^.5</f>
       </c>
-      <c r="J342" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K342" s="2" t="s">
+      <c r="J342" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K342" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L342" t="n">
@@ -10046,28 +10058,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="s" s="2">
+      <c r="A344" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C344" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D344" t="s" s="2">
+      <c r="C344" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10092,28 +10104,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C346" t="s" s="2">
+      <c r="C346" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D346" t="s" s="2">
+      <c r="D346" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I346" t="s" s="2">
+      <c r="I346" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10172,10 +10184,10 @@
       <c r="I348">
         <f>((C348-C347)^2+(D348- D347)^2)^.5</f>
       </c>
-      <c r="J348" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K348" s="2" t="s">
+      <c r="J348" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K348" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L348" t="n">
@@ -10219,28 +10231,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="s" s="2">
+      <c r="A350" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C350" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D350" t="s" s="2">
+      <c r="C350" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D350" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10265,28 +10277,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C352" t="s" s="2">
+      <c r="C352" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D352" t="s" s="2">
+      <c r="D352" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I352" t="s" s="2">
+      <c r="I352" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10345,10 +10357,10 @@
       <c r="I354">
         <f>((C354-C353)^2+(D354- D353)^2)^.5</f>
       </c>
-      <c r="J354" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K354" s="2" t="s">
+      <c r="J354" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K354" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L354" t="n">
@@ -10392,28 +10404,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="2">
+      <c r="A356" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C356" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D356" t="s" s="2">
+      <c r="C356" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10438,28 +10450,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C358" t="s" s="2">
+      <c r="C358" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D358" t="s" s="2">
+      <c r="D358" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I358" t="s" s="2">
+      <c r="I358" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10518,10 +10530,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="2" t="s">
+      <c r="J360" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10565,28 +10577,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="2">
+      <c r="A362" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="2">
+      <c r="C362" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10611,28 +10623,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="2">
+      <c r="C364" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="2">
+      <c r="D364" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="2">
+      <c r="I364" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10691,10 +10703,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="2" t="s">
+      <c r="J366" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
